--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/artfynd/A 25131-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/artfynd/A 25131-2019.xlsx", "A 25131-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/kartor/A 25131-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/kartor/A 25131-2019.png", "A 25131-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomål/A 25131-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomål/A 25131-2019.docx", "A 25131-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomålsmail/A 25131-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomålsmail/A 25131-2019.docx", "A 25131-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsyn/A 25131-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsyn/A 25131-2019.docx", "A 25131-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsynsmail/A 25131-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsynsmail/A 25131-2019.docx", "A 25131-2019")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,27 +712,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/artfynd/A 33148-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/artfynd/A 33148-2019.xlsx", "A 33148-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/kartor/A 33148-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/kartor/A 33148-2019.png", "A 33148-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomål/A 33148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomål/A 33148-2019.docx", "A 33148-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomålsmail/A 33148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomålsmail/A 33148-2019.docx", "A 33148-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsyn/A 33148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsyn/A 33148-2019.docx", "A 33148-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsynsmail/A 33148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsynsmail/A 33148-2019.docx", "A 33148-2019")</f>
         <v/>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,27 +799,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/artfynd/A 56461-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/artfynd/A 56461-2019.xlsx", "A 56461-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/kartor/A 56461-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/kartor/A 56461-2019.png", "A 56461-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomål/A 56461-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomål/A 56461-2019.docx", "A 56461-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomålsmail/A 56461-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomålsmail/A 56461-2019.docx", "A 56461-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsyn/A 56461-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsyn/A 56461-2019.docx", "A 56461-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsynsmail/A 56461-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsynsmail/A 56461-2019.docx", "A 56461-2019")</f>
         <v/>
       </c>
     </row>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,27 +885,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/artfynd/A 55448-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/artfynd/A 55448-2018.xlsx", "A 55448-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/kartor/A 55448-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/kartor/A 55448-2018.png", "A 55448-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomål/A 55448-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomål/A 55448-2018.docx", "A 55448-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomålsmail/A 55448-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomålsmail/A 55448-2018.docx", "A 55448-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsyn/A 55448-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsyn/A 55448-2018.docx", "A 55448-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsynsmail/A 55448-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsynsmail/A 55448-2018.docx", "A 55448-2018")</f>
         <v/>
       </c>
     </row>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,27 +970,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/artfynd/A 40335-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/artfynd/A 40335-2019.xlsx", "A 40335-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/kartor/A 40335-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/kartor/A 40335-2019.png", "A 40335-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomål/A 40335-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomål/A 40335-2019.docx", "A 40335-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomålsmail/A 40335-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomålsmail/A 40335-2019.docx", "A 40335-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsyn/A 40335-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsyn/A 40335-2019.docx", "A 40335-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsynsmail/A 40335-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsynsmail/A 40335-2019.docx", "A 40335-2019")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1055,27 +1055,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/artfynd/A 23387-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/artfynd/A 23387-2020.xlsx", "A 23387-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/kartor/A 23387-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/kartor/A 23387-2020.png", "A 23387-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomål/A 23387-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomål/A 23387-2020.docx", "A 23387-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomålsmail/A 23387-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomålsmail/A 23387-2020.docx", "A 23387-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsyn/A 23387-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsyn/A 23387-2020.docx", "A 23387-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsynsmail/A 23387-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsynsmail/A 23387-2020.docx", "A 23387-2020")</f>
         <v/>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,27 +1140,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/artfynd/A 21225-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/artfynd/A 21225-2023.xlsx", "A 21225-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/kartor/A 21225-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/kartor/A 21225-2023.png", "A 21225-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomål/A 21225-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomål/A 21225-2023.docx", "A 21225-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomålsmail/A 21225-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/klagomålsmail/A 21225-2023.docx", "A 21225-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsyn/A 21225-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsyn/A 21225-2023.docx", "A 21225-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsynsmail/A 21225-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGALV/tillsynsmail/A 21225-2023.docx", "A 21225-2023")</f>
         <v/>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -572,7 +572,7 @@
         <v>43605</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43649</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43397</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43968</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45058</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>43343</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>43397</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43397</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>43399</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43423</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43492</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43539</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43634</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43644</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>43651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43769</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>43780</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43847</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43880</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43916</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43961</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43961</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44006</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44047</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44047</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44124</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44141</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44224</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44228</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44228</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44250</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44558</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44624</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44691</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44691</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44757</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44792</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44809</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44836</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44861</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44861</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45058</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45058</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45063</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45063</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
